--- a/data/pca/factorExposure/factorExposure_2018-07-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02416585935972755</v>
+        <v>0.02103752271019985</v>
       </c>
       <c r="C2">
-        <v>-0.02165926012766402</v>
+        <v>0.01904050563931322</v>
       </c>
       <c r="D2">
-        <v>-0.02797150604875242</v>
+        <v>0.02052111570846792</v>
       </c>
       <c r="E2">
-        <v>0.006363321961095156</v>
+        <v>0.01582617230049177</v>
       </c>
       <c r="F2">
-        <v>-0.1113420663760709</v>
+        <v>-0.003566171139244605</v>
       </c>
       <c r="G2">
-        <v>0.04984589623321105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.05214485579572345</v>
+      </c>
+      <c r="H2">
+        <v>-0.04840527378136904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1059890882226405</v>
+        <v>0.08034969869567518</v>
       </c>
       <c r="C3">
-        <v>0.04332997473611335</v>
+        <v>-0.01179357549786667</v>
       </c>
       <c r="D3">
-        <v>-0.0810973459275264</v>
+        <v>0.02468956000603109</v>
       </c>
       <c r="E3">
-        <v>0.01379213552644475</v>
+        <v>0.01258328951750252</v>
       </c>
       <c r="F3">
-        <v>-0.3894000246691386</v>
+        <v>0.04666600969460576</v>
       </c>
       <c r="G3">
-        <v>0.175751633566611</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1783862282798385</v>
+      </c>
+      <c r="H3">
+        <v>-0.1546919862434861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04598657594025918</v>
+        <v>0.04342670697479188</v>
       </c>
       <c r="C4">
-        <v>-0.02322490693568628</v>
+        <v>0.005329521517977169</v>
       </c>
       <c r="D4">
-        <v>0.01446517992430492</v>
+        <v>0.04845680579330845</v>
       </c>
       <c r="E4">
-        <v>-0.05040931157136452</v>
+        <v>-0.02374021080275463</v>
       </c>
       <c r="F4">
-        <v>-0.0827281254082215</v>
+        <v>-0.04807882813588223</v>
       </c>
       <c r="G4">
-        <v>0.06040367329541559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04363150114628754</v>
+      </c>
+      <c r="H4">
+        <v>-0.05598856700446295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0154146387716567</v>
+        <v>0.02500692669786959</v>
       </c>
       <c r="C6">
-        <v>-0.01107339141276839</v>
+        <v>0.004444832359602894</v>
       </c>
       <c r="D6">
-        <v>-0.0165348998139498</v>
+        <v>0.05163166215735375</v>
       </c>
       <c r="E6">
-        <v>-0.02207674806996313</v>
+        <v>-0.008583485664482523</v>
       </c>
       <c r="F6">
-        <v>-0.01605018382223629</v>
+        <v>-0.02955435485759984</v>
       </c>
       <c r="G6">
-        <v>0.001888122639058729</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01435100344845626</v>
+      </c>
+      <c r="H6">
+        <v>-0.06225624749494443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0210613096493407</v>
+        <v>0.02101674139087039</v>
       </c>
       <c r="C7">
-        <v>-0.0005989977466693341</v>
+        <v>0.003487152457767695</v>
       </c>
       <c r="D7">
-        <v>-0.01569243115349025</v>
+        <v>0.02563564266462087</v>
       </c>
       <c r="E7">
-        <v>-0.02817949737910419</v>
+        <v>-0.04180441098519899</v>
       </c>
       <c r="F7">
-        <v>-0.05545786495548057</v>
+        <v>-0.0004870007555045039</v>
       </c>
       <c r="G7">
-        <v>0.06906603614460868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02363912145861907</v>
+      </c>
+      <c r="H7">
+        <v>-0.03717337026133911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01973076035162567</v>
+        <v>0.005511901811055839</v>
       </c>
       <c r="C8">
-        <v>-0.01354255238487553</v>
+        <v>-0.001386157186757546</v>
       </c>
       <c r="D8">
-        <v>-0.006620925519116092</v>
+        <v>0.01258811093987615</v>
       </c>
       <c r="E8">
-        <v>-0.04254045021579848</v>
+        <v>-0.007547804402062669</v>
       </c>
       <c r="F8">
-        <v>-0.1006210034469293</v>
+        <v>-0.01551972763761415</v>
       </c>
       <c r="G8">
-        <v>0.05654202708588357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04649996741859545</v>
+      </c>
+      <c r="H8">
+        <v>-0.04310559901108124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03622870018374002</v>
+        <v>0.03489207892970298</v>
       </c>
       <c r="C9">
-        <v>-0.01989263014765607</v>
+        <v>0.001289523824855034</v>
       </c>
       <c r="D9">
-        <v>0.004692710220715334</v>
+        <v>0.03536582071532751</v>
       </c>
       <c r="E9">
-        <v>-0.04357653821457923</v>
+        <v>-0.01233781646194116</v>
       </c>
       <c r="F9">
-        <v>-0.08456804175515922</v>
+        <v>-0.02325630279154804</v>
       </c>
       <c r="G9">
-        <v>0.05956363783370307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.05015052670606183</v>
+      </c>
+      <c r="H9">
+        <v>-0.05240130761706606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02716600769570054</v>
+        <v>0.1042060425244824</v>
       </c>
       <c r="C10">
-        <v>0.04289574098751921</v>
+        <v>-0.03010443748439091</v>
       </c>
       <c r="D10">
-        <v>0.08137773789131518</v>
+        <v>-0.1516851830437906</v>
       </c>
       <c r="E10">
-        <v>0.1068201705942139</v>
+        <v>0.009752069610592273</v>
       </c>
       <c r="F10">
-        <v>-0.04502776308573602</v>
+        <v>0.04338338036168592</v>
       </c>
       <c r="G10">
-        <v>-0.01823126398732069</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02349144395952079</v>
+      </c>
+      <c r="H10">
+        <v>-0.006189170188035758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03619242096338799</v>
+        <v>0.02011144952955475</v>
       </c>
       <c r="C11">
-        <v>-0.01521208902066132</v>
+        <v>-0.007719110673644344</v>
       </c>
       <c r="D11">
-        <v>-0.01660924940676051</v>
+        <v>0.03953859921927057</v>
       </c>
       <c r="E11">
-        <v>-0.03035605510702045</v>
+        <v>0.0007944326999618673</v>
       </c>
       <c r="F11">
-        <v>-0.04521572887543815</v>
+        <v>-0.009073485268814793</v>
       </c>
       <c r="G11">
-        <v>0.02737190148461909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02641952050708825</v>
+      </c>
+      <c r="H11">
+        <v>-0.04378019190573627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04392628090368359</v>
+        <v>0.0292331548399655</v>
       </c>
       <c r="C12">
-        <v>-0.0164088521734676</v>
+        <v>-0.006185264507455521</v>
       </c>
       <c r="D12">
-        <v>-0.009885372771439168</v>
+        <v>0.04086368496350625</v>
       </c>
       <c r="E12">
-        <v>-0.03913073187261298</v>
+        <v>-0.009113166494578929</v>
       </c>
       <c r="F12">
-        <v>-0.03334811416077926</v>
+        <v>-0.01620808664310267</v>
       </c>
       <c r="G12">
-        <v>0.01771919502794234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01160328164151589</v>
+      </c>
+      <c r="H12">
+        <v>-0.02371756834923876</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01542498388154145</v>
+        <v>0.02508175491188411</v>
       </c>
       <c r="C13">
-        <v>-0.01979221911208941</v>
+        <v>0.01474052852304235</v>
       </c>
       <c r="D13">
-        <v>-0.01409023728622461</v>
+        <v>-0.001821542813906848</v>
       </c>
       <c r="E13">
-        <v>0.003314498967008896</v>
+        <v>0.01241762070586378</v>
       </c>
       <c r="F13">
-        <v>-0.07668046452675978</v>
+        <v>-0.007569281106527509</v>
       </c>
       <c r="G13">
-        <v>0.04417224992130147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05671056849912709</v>
+      </c>
+      <c r="H13">
+        <v>-0.0567161058335706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01416003281861396</v>
+        <v>0.01668487335627835</v>
       </c>
       <c r="C14">
-        <v>-0.009076998449258238</v>
+        <v>0.0008355726100630281</v>
       </c>
       <c r="D14">
-        <v>0.004365976488188022</v>
+        <v>0.005164096094554252</v>
       </c>
       <c r="E14">
-        <v>-0.03895068742193922</v>
+        <v>-0.01383560872908957</v>
       </c>
       <c r="F14">
-        <v>-0.05125527203160064</v>
+        <v>-0.01178623657071007</v>
       </c>
       <c r="G14">
-        <v>0.0688533126536537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04332855733120783</v>
+      </c>
+      <c r="H14">
+        <v>-0.002884148464953001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02747387242992349</v>
+        <v>0.02159919791543937</v>
       </c>
       <c r="C16">
-        <v>-0.01865538494171648</v>
+        <v>-0.008328311477043377</v>
       </c>
       <c r="D16">
-        <v>-0.01703459572078183</v>
+        <v>0.03526601677666772</v>
       </c>
       <c r="E16">
-        <v>-0.02349622513515449</v>
+        <v>-0.003052541818933836</v>
       </c>
       <c r="F16">
-        <v>-0.05181814382266592</v>
+        <v>-0.01519836252999916</v>
       </c>
       <c r="G16">
-        <v>0.03017710237483572</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02397461547933126</v>
+      </c>
+      <c r="H16">
+        <v>-0.03727356034281031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04795787937119057</v>
+        <v>0.03429272216834429</v>
       </c>
       <c r="C19">
-        <v>-0.01792047565374156</v>
+        <v>0.0004426154494340398</v>
       </c>
       <c r="D19">
-        <v>-0.01549969546349527</v>
+        <v>0.02291721847143492</v>
       </c>
       <c r="E19">
-        <v>-0.03788617705447458</v>
+        <v>-0.006004939515401</v>
       </c>
       <c r="F19">
-        <v>-0.1005181437471285</v>
+        <v>-0.01743320511345533</v>
       </c>
       <c r="G19">
-        <v>0.03391037482574052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.05869256374433667</v>
+      </c>
+      <c r="H19">
+        <v>-0.07249966549199903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0006637276057740575</v>
+        <v>0.009042166011984378</v>
       </c>
       <c r="C20">
-        <v>-0.01150188794569558</v>
+        <v>0.006868806430136611</v>
       </c>
       <c r="D20">
-        <v>0.002420007336081316</v>
+        <v>0.008190704373837971</v>
       </c>
       <c r="E20">
-        <v>-0.03054367131844579</v>
+        <v>-0.004335996654514197</v>
       </c>
       <c r="F20">
-        <v>-0.07357514254018042</v>
+        <v>-0.009960368753012717</v>
       </c>
       <c r="G20">
-        <v>0.07332355277356339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04963309350215584</v>
+      </c>
+      <c r="H20">
+        <v>-0.01328796341241973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.005169838263607116</v>
+        <v>0.01426356536766404</v>
       </c>
       <c r="C21">
-        <v>0.01624736339390819</v>
+        <v>0.008664699842846919</v>
       </c>
       <c r="D21">
-        <v>-0.01531937737441507</v>
+        <v>0.008948525118773452</v>
       </c>
       <c r="E21">
-        <v>-0.02744418106230975</v>
+        <v>-0.01606188603767889</v>
       </c>
       <c r="F21">
-        <v>-0.05104246586417054</v>
+        <v>0.001000680127785297</v>
       </c>
       <c r="G21">
-        <v>0.01850305580659052</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05036443932625985</v>
+      </c>
+      <c r="H21">
+        <v>-0.03359849403614707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03145182907576247</v>
+        <v>0.01917782375881931</v>
       </c>
       <c r="C24">
-        <v>-0.02018301431472281</v>
+        <v>-0.00259556891070874</v>
       </c>
       <c r="D24">
-        <v>-0.008604756084619046</v>
+        <v>0.03503502869496745</v>
       </c>
       <c r="E24">
-        <v>-0.008766490321929263</v>
+        <v>-0.000321340051171365</v>
       </c>
       <c r="F24">
-        <v>-0.04380226990238278</v>
+        <v>-0.009537804886242092</v>
       </c>
       <c r="G24">
-        <v>0.02547578104518698</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02064286293502</v>
+      </c>
+      <c r="H24">
+        <v>-0.04104035318116623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03130465746321733</v>
+        <v>0.02887304596066506</v>
       </c>
       <c r="C25">
-        <v>-0.01211866013218387</v>
+        <v>-0.0005769632785883193</v>
       </c>
       <c r="D25">
-        <v>-0.01706318682284414</v>
+        <v>0.03488007340489664</v>
       </c>
       <c r="E25">
-        <v>-0.03607865970011683</v>
+        <v>-0.004410111169885266</v>
       </c>
       <c r="F25">
-        <v>-0.04512530114570251</v>
+        <v>-0.01573662885625128</v>
       </c>
       <c r="G25">
-        <v>0.009333978962821616</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02459171906402948</v>
+      </c>
+      <c r="H25">
+        <v>-0.04353518155865632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02108398730516491</v>
+        <v>0.02025294866234797</v>
       </c>
       <c r="C26">
-        <v>-0.00415923020195309</v>
+        <v>0.01724128605529767</v>
       </c>
       <c r="D26">
-        <v>-0.03076261022367735</v>
+        <v>0.002961892432433911</v>
       </c>
       <c r="E26">
-        <v>-0.0169004319047668</v>
+        <v>0.00116663863792734</v>
       </c>
       <c r="F26">
-        <v>-0.06288256435252496</v>
+        <v>0.0007774898176063774</v>
       </c>
       <c r="G26">
-        <v>0.03832507483726946</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03232090976669703</v>
+      </c>
+      <c r="H26">
+        <v>-0.02093115688533576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0626756997012384</v>
+        <v>0.02442192673380675</v>
       </c>
       <c r="C27">
-        <v>-0.02947107781011746</v>
+        <v>-0.009282265547881951</v>
       </c>
       <c r="D27">
-        <v>0.02726901047040075</v>
+        <v>0.01559070097290467</v>
       </c>
       <c r="E27">
-        <v>-0.03593521137591276</v>
+        <v>-0.007870027853921244</v>
       </c>
       <c r="F27">
-        <v>-0.05601733967241119</v>
+        <v>-0.01632724863914563</v>
       </c>
       <c r="G27">
-        <v>0.04388514617009136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01939736978450131</v>
+      </c>
+      <c r="H27">
+        <v>-0.005072044286716236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04343799327394487</v>
+        <v>0.1546400220301378</v>
       </c>
       <c r="C28">
-        <v>0.04591506995170744</v>
+        <v>-0.03135159575465638</v>
       </c>
       <c r="D28">
-        <v>0.1141091765554237</v>
+        <v>-0.2200387274040673</v>
       </c>
       <c r="E28">
-        <v>0.1485747466507371</v>
+        <v>0.007782701108136817</v>
       </c>
       <c r="F28">
-        <v>-0.04211223705152067</v>
+        <v>0.04781766388568032</v>
       </c>
       <c r="G28">
-        <v>-0.0005371061723603638</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.009216879506032422</v>
+      </c>
+      <c r="H28">
+        <v>0.01391545883695147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02154123083140016</v>
+        <v>0.02158780730732728</v>
       </c>
       <c r="C29">
-        <v>-0.0106580951397443</v>
+        <v>-0.001286082601548059</v>
       </c>
       <c r="D29">
-        <v>0.006872750557904147</v>
+        <v>0.006550001610249454</v>
       </c>
       <c r="E29">
-        <v>-0.05339854342111128</v>
+        <v>-0.01392853302582316</v>
       </c>
       <c r="F29">
-        <v>-0.0433659949334099</v>
+        <v>-0.01475494761888329</v>
       </c>
       <c r="G29">
-        <v>0.05920553023178719</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.04112003813440353</v>
+      </c>
+      <c r="H29">
+        <v>0.0010163703376094</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09133681101911925</v>
+        <v>0.04952163513783068</v>
       </c>
       <c r="C30">
-        <v>-0.06123079576214675</v>
+        <v>0.00581436471834315</v>
       </c>
       <c r="D30">
-        <v>-0.01565312339505708</v>
+        <v>0.06999956499735747</v>
       </c>
       <c r="E30">
-        <v>-0.06744454326151512</v>
+        <v>0.02867009746463476</v>
       </c>
       <c r="F30">
-        <v>-0.08880185102429647</v>
+        <v>-0.04955219580434644</v>
       </c>
       <c r="G30">
-        <v>0.06276042859797265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05680420967561009</v>
+      </c>
+      <c r="H30">
+        <v>-0.06161386487558113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06327462602608795</v>
+        <v>0.0543886009934173</v>
       </c>
       <c r="C31">
-        <v>-0.02737117745932617</v>
+        <v>-0.01437969251004431</v>
       </c>
       <c r="D31">
-        <v>-0.02626419060144992</v>
+        <v>0.02730674516706077</v>
       </c>
       <c r="E31">
-        <v>-0.004943015277301651</v>
+        <v>0.004497848576033512</v>
       </c>
       <c r="F31">
-        <v>-0.04106528286439858</v>
+        <v>-0.01270206894746379</v>
       </c>
       <c r="G31">
-        <v>0.06704441857657016</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01783512161791512</v>
+      </c>
+      <c r="H31">
+        <v>-0.01113240349327609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0202146909773212</v>
+        <v>0.01126135711635847</v>
       </c>
       <c r="C32">
-        <v>-0.01845722024166837</v>
+        <v>-0.01347227650429567</v>
       </c>
       <c r="D32">
-        <v>-0.0104735696888164</v>
+        <v>0.003445293879730976</v>
       </c>
       <c r="E32">
-        <v>-0.08127770629454541</v>
+        <v>-0.03165673399791287</v>
       </c>
       <c r="F32">
-        <v>-0.06287427873030299</v>
+        <v>-0.03309729078839151</v>
       </c>
       <c r="G32">
-        <v>0.0497434707367494</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.03516239559305184</v>
+      </c>
+      <c r="H32">
+        <v>-0.06034542073778481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05071590695109127</v>
+        <v>0.03791690639687977</v>
       </c>
       <c r="C33">
-        <v>-0.01268212117946123</v>
+        <v>-0.0007425997362517596</v>
       </c>
       <c r="D33">
-        <v>-0.04737521969667748</v>
+        <v>0.03458633037094067</v>
       </c>
       <c r="E33">
-        <v>-0.03891462848150333</v>
+        <v>0.02359849599992833</v>
       </c>
       <c r="F33">
-        <v>-0.08775614425318766</v>
+        <v>-0.002197490557620119</v>
       </c>
       <c r="G33">
-        <v>0.06228989571505475</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.0479271889666016</v>
+      </c>
+      <c r="H33">
+        <v>-0.04046069596610638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03414138166077654</v>
+        <v>0.02606171866997901</v>
       </c>
       <c r="C34">
-        <v>-0.02143110936931199</v>
+        <v>-0.0168016545790125</v>
       </c>
       <c r="D34">
-        <v>-0.01209897503646777</v>
+        <v>0.0363209057326721</v>
       </c>
       <c r="E34">
-        <v>-0.03208814252558567</v>
+        <v>-0.009392390289439027</v>
       </c>
       <c r="F34">
-        <v>-0.05915144471683668</v>
+        <v>-0.01693444457867269</v>
       </c>
       <c r="G34">
-        <v>0.01640294182452095</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02223798973728603</v>
+      </c>
+      <c r="H34">
+        <v>-0.03813504753342226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01559201750558009</v>
+        <v>0.02107845650800877</v>
       </c>
       <c r="C36">
-        <v>-0.004423560174389046</v>
+        <v>0.003882878510667495</v>
       </c>
       <c r="D36">
-        <v>0.00177311952087361</v>
+        <v>0.0003791982284241364</v>
       </c>
       <c r="E36">
-        <v>-0.02843350556780925</v>
+        <v>-0.006650354617568348</v>
       </c>
       <c r="F36">
-        <v>-0.03194774821589771</v>
+        <v>-0.003357999663124085</v>
       </c>
       <c r="G36">
-        <v>0.03791140537526869</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01940441977462219</v>
+      </c>
+      <c r="H36">
+        <v>-0.008176800133347923</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001501860925351045</v>
+        <v>0.02258996633713124</v>
       </c>
       <c r="C38">
-        <v>0.01038812859157647</v>
+        <v>-0.01605227905122917</v>
       </c>
       <c r="D38">
-        <v>-0.01358878787805236</v>
+        <v>0.008807406319133066</v>
       </c>
       <c r="E38">
-        <v>0.01555447264791347</v>
+        <v>0.00108501850526368</v>
       </c>
       <c r="F38">
-        <v>-0.04610900529615284</v>
+        <v>-0.008766674102301083</v>
       </c>
       <c r="G38">
-        <v>0.004303196745721718</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02184921514577584</v>
+      </c>
+      <c r="H38">
+        <v>-0.03883837846388929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04125684548530278</v>
+        <v>0.01690576646849087</v>
       </c>
       <c r="C39">
-        <v>-0.03825809227596225</v>
+        <v>-0.0001091115035802657</v>
       </c>
       <c r="D39">
-        <v>-0.02568085454724593</v>
+        <v>0.07602457898201535</v>
       </c>
       <c r="E39">
-        <v>-0.03580194560268296</v>
+        <v>0.001542869750245351</v>
       </c>
       <c r="F39">
-        <v>-0.06574715817058691</v>
+        <v>-0.0200439418839895</v>
       </c>
       <c r="G39">
-        <v>0.0321976379589552</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04305504654642922</v>
+      </c>
+      <c r="H39">
+        <v>-0.07002975751665998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03761411131970547</v>
+        <v>0.03024279715603671</v>
       </c>
       <c r="C40">
-        <v>-0.06398478500034245</v>
+        <v>-0.0002979174752057813</v>
       </c>
       <c r="D40">
-        <v>-0.03584164076698766</v>
+        <v>0.02091240984145221</v>
       </c>
       <c r="E40">
-        <v>0.01000988079206908</v>
+        <v>0.02425025332915083</v>
       </c>
       <c r="F40">
-        <v>-0.07778021407368749</v>
+        <v>-0.02741197719185136</v>
       </c>
       <c r="G40">
-        <v>0.05161892513619455</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02815397174898659</v>
+      </c>
+      <c r="H40">
+        <v>-0.06356126589122249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0002878266950905079</v>
+        <v>0.01177216811897531</v>
       </c>
       <c r="C41">
-        <v>0.001948504487177647</v>
+        <v>0.0002695297294779694</v>
       </c>
       <c r="D41">
-        <v>-0.007255174187456075</v>
+        <v>-0.01243543859768579</v>
       </c>
       <c r="E41">
-        <v>-0.009616602958675091</v>
+        <v>0.001936897276533473</v>
       </c>
       <c r="F41">
-        <v>-0.002527465482554403</v>
+        <v>0.001711359171477449</v>
       </c>
       <c r="G41">
-        <v>0.04856199577099172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.003291237107020781</v>
+      </c>
+      <c r="H41">
+        <v>0.005816932857118827</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3717543964744014</v>
+        <v>0.1957073542913203</v>
       </c>
       <c r="C42">
-        <v>0.6525829936438521</v>
+        <v>0.07728777310475039</v>
       </c>
       <c r="D42">
-        <v>-0.5450571469113118</v>
+        <v>0.3565898441406772</v>
       </c>
       <c r="E42">
-        <v>0.1601739557270752</v>
+        <v>0.2371309364988035</v>
       </c>
       <c r="F42">
-        <v>0.2667499541634243</v>
+        <v>0.8423849611299482</v>
       </c>
       <c r="G42">
-        <v>0.07920863784415567</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.2029142821652086</v>
+      </c>
+      <c r="H42">
+        <v>0.05061169494648621</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007228123989099444</v>
+        <v>0.01203196570899153</v>
       </c>
       <c r="C43">
-        <v>0.006640087383751452</v>
+        <v>0.001440492189687916</v>
       </c>
       <c r="D43">
-        <v>-0.01682005388099296</v>
+        <v>-0.01275776996103047</v>
       </c>
       <c r="E43">
-        <v>-0.01074533162533719</v>
+        <v>0.006360602069790091</v>
       </c>
       <c r="F43">
-        <v>-0.01792796805183743</v>
+        <v>0.008160032219038512</v>
       </c>
       <c r="G43">
-        <v>0.04706082676426212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.005898437084870384</v>
+      </c>
+      <c r="H43">
+        <v>-0.002079474241407323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01605104464617255</v>
+        <v>0.01269233897439819</v>
       </c>
       <c r="C44">
-        <v>0.006827856455173556</v>
+        <v>-0.0007255824767323177</v>
       </c>
       <c r="D44">
-        <v>-0.0210806023203104</v>
+        <v>0.02438717746486321</v>
       </c>
       <c r="E44">
-        <v>-0.02059874775657215</v>
+        <v>-0.004977664571884449</v>
       </c>
       <c r="F44">
-        <v>-0.1086949068498484</v>
+        <v>0.007356666829669671</v>
       </c>
       <c r="G44">
-        <v>0.08513753199012103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03894203792681052</v>
+      </c>
+      <c r="H44">
+        <v>-0.05785046569143263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01965545644165162</v>
+        <v>0.01810417942325608</v>
       </c>
       <c r="C46">
-        <v>-0.01128237362198526</v>
+        <v>0.003934324782228282</v>
       </c>
       <c r="D46">
-        <v>-0.02301779642095004</v>
+        <v>0.01439107929072529</v>
       </c>
       <c r="E46">
-        <v>-0.04699603226053185</v>
+        <v>-0.001487531927444509</v>
       </c>
       <c r="F46">
-        <v>-0.05709573269944215</v>
+        <v>-0.01390655932949993</v>
       </c>
       <c r="G46">
-        <v>0.06725391604478054</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04837040209545838</v>
+      </c>
+      <c r="H46">
+        <v>-0.01165000863375838</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09622449181251629</v>
+        <v>0.07447504710098606</v>
       </c>
       <c r="C47">
-        <v>-0.03371081891619076</v>
+        <v>-0.029494881203835</v>
       </c>
       <c r="D47">
-        <v>-0.008124565560801182</v>
+        <v>0.04667606881066215</v>
       </c>
       <c r="E47">
-        <v>-0.02371846149951604</v>
+        <v>-0.0004448016770113944</v>
       </c>
       <c r="F47">
-        <v>-0.01772413820768946</v>
+        <v>-0.02383012958917234</v>
       </c>
       <c r="G47">
-        <v>0.09003204645778376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.006864725797654757</v>
+      </c>
+      <c r="H47">
+        <v>0.02072448451234735</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01768248888952829</v>
+        <v>0.02234095797699655</v>
       </c>
       <c r="C48">
-        <v>-0.006090924019812695</v>
+        <v>-0.006626663108107187</v>
       </c>
       <c r="D48">
-        <v>-0.01462043846485204</v>
+        <v>0.008045448123720805</v>
       </c>
       <c r="E48">
-        <v>-0.02658661414810243</v>
+        <v>-0.001691682734290784</v>
       </c>
       <c r="F48">
-        <v>-0.04968466246553224</v>
+        <v>-0.008090945097669406</v>
       </c>
       <c r="G48">
-        <v>0.0262331205683135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02606516902057666</v>
+      </c>
+      <c r="H48">
+        <v>-0.0184959584221773</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09041069817069559</v>
+        <v>0.07300438696146318</v>
       </c>
       <c r="C50">
-        <v>-0.02927607934812728</v>
+        <v>-0.02660176645371029</v>
       </c>
       <c r="D50">
-        <v>-0.02005439653090912</v>
+        <v>0.04443809000468332</v>
       </c>
       <c r="E50">
-        <v>-0.03297950550733179</v>
+        <v>-0.01929464023944392</v>
       </c>
       <c r="F50">
-        <v>-0.05345379276936513</v>
+        <v>-0.01637226331228083</v>
       </c>
       <c r="G50">
-        <v>0.04291982946568526</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01542943075370248</v>
+      </c>
+      <c r="H50">
+        <v>0.0004609797002925406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01648430729612571</v>
+        <v>0.01826169445065184</v>
       </c>
       <c r="C51">
-        <v>0.0128794158409228</v>
+        <v>0.001649376340389772</v>
       </c>
       <c r="D51">
-        <v>-0.01350473544648365</v>
+        <v>-0.004483768541020497</v>
       </c>
       <c r="E51">
-        <v>0.007984682134494797</v>
+        <v>-0.0002860005340455694</v>
       </c>
       <c r="F51">
-        <v>-0.1128514096619742</v>
+        <v>0.01331615538607614</v>
       </c>
       <c r="G51">
-        <v>0.05815533539836445</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04930337600273906</v>
+      </c>
+      <c r="H51">
+        <v>-0.05031210020968217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1060942442801882</v>
+        <v>0.09239946847744196</v>
       </c>
       <c r="C53">
-        <v>-0.0526055229673709</v>
+        <v>-0.03645130828594271</v>
       </c>
       <c r="D53">
-        <v>-0.01313099590139513</v>
+        <v>0.08215212757016352</v>
       </c>
       <c r="E53">
-        <v>-0.04233305933805784</v>
+        <v>-0.007827195124272872</v>
       </c>
       <c r="F53">
-        <v>0.04358499172335657</v>
+        <v>-0.05154286191653661</v>
       </c>
       <c r="G53">
-        <v>0.02239878872143078</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04102257404986025</v>
+      </c>
+      <c r="H53">
+        <v>0.04199420855602303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02084822255990012</v>
+        <v>0.02625954161860989</v>
       </c>
       <c r="C54">
-        <v>-0.01367087789012752</v>
+        <v>-0.01144173077561233</v>
       </c>
       <c r="D54">
-        <v>0.008356467437013626</v>
+        <v>-0.01137292645908852</v>
       </c>
       <c r="E54">
-        <v>-0.0375286077910906</v>
+        <v>-0.007440656816842822</v>
       </c>
       <c r="F54">
-        <v>-0.04761240858097197</v>
+        <v>-0.005606709321792361</v>
       </c>
       <c r="G54">
-        <v>0.07275659993079643</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04067618220052568</v>
+      </c>
+      <c r="H54">
+        <v>0.003338703549744523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1051918167295416</v>
+        <v>0.07614320804217178</v>
       </c>
       <c r="C55">
-        <v>-0.03073242615193239</v>
+        <v>-0.03130872072186128</v>
       </c>
       <c r="D55">
-        <v>0.00809199880467198</v>
+        <v>0.07859544642391458</v>
       </c>
       <c r="E55">
-        <v>-0.06468890302043404</v>
+        <v>-0.01520365331543466</v>
       </c>
       <c r="F55">
-        <v>0.03211645199080451</v>
+        <v>-0.04111724751919633</v>
       </c>
       <c r="G55">
-        <v>0.06884837021472683</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01836751396242006</v>
+      </c>
+      <c r="H55">
+        <v>0.05170131809418984</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1438995135677055</v>
+        <v>0.1246629950160097</v>
       </c>
       <c r="C56">
-        <v>-0.09132767866210903</v>
+        <v>-0.05525610224864785</v>
       </c>
       <c r="D56">
-        <v>0.02346775934388672</v>
+        <v>0.1042278940010432</v>
       </c>
       <c r="E56">
-        <v>-0.05704802580441909</v>
+        <v>-0.01231375850996466</v>
       </c>
       <c r="F56">
-        <v>0.09826793861754965</v>
+        <v>-0.08239820776905674</v>
       </c>
       <c r="G56">
-        <v>-0.03607116315494152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07457844676714045</v>
+      </c>
+      <c r="H56">
+        <v>0.05084958795691023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04981047412001895</v>
+        <v>0.03896207956412851</v>
       </c>
       <c r="C57">
-        <v>-0.001581745378845385</v>
+        <v>0.01022540015915448</v>
       </c>
       <c r="D57">
-        <v>-0.01213473911889162</v>
+        <v>0.03073220859447687</v>
       </c>
       <c r="E57">
-        <v>0.01530550659156809</v>
+        <v>0.003708850978547143</v>
       </c>
       <c r="F57">
-        <v>-0.08379786115169244</v>
+        <v>-0.0145328571393154</v>
       </c>
       <c r="G57">
-        <v>0.05898967272779464</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05676690452244008</v>
+      </c>
+      <c r="H57">
+        <v>-0.04183025553430617</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.207113795520351</v>
+        <v>0.144985578708394</v>
       </c>
       <c r="C58">
-        <v>-0.06515585644920333</v>
+        <v>-0.04106815766275795</v>
       </c>
       <c r="D58">
-        <v>-0.1305235601356517</v>
+        <v>0.1572329561264487</v>
       </c>
       <c r="E58">
-        <v>-0.124092033806174</v>
+        <v>0.1663577017524392</v>
       </c>
       <c r="F58">
-        <v>-0.3381422648635984</v>
+        <v>0.03902523246478794</v>
       </c>
       <c r="G58">
-        <v>0.1453849601805833</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8294731709833529</v>
+      </c>
+      <c r="H58">
+        <v>0.3692190664979327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0457962504682987</v>
+        <v>0.1599346300189508</v>
       </c>
       <c r="C59">
-        <v>0.002800428509826312</v>
+        <v>-0.03884406654642306</v>
       </c>
       <c r="D59">
-        <v>0.09968319860417017</v>
+        <v>-0.2184183749521694</v>
       </c>
       <c r="E59">
-        <v>0.1406506575268019</v>
+        <v>0.02529710545370501</v>
       </c>
       <c r="F59">
-        <v>-0.06343042405036498</v>
+        <v>0.02584417411985125</v>
       </c>
       <c r="G59">
-        <v>-0.02104410731778526</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.009543045642431981</v>
+      </c>
+      <c r="H59">
+        <v>-0.01767970008955636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1638940352821619</v>
+        <v>0.1751620677893767</v>
       </c>
       <c r="C60">
-        <v>-0.04061313419596112</v>
+        <v>-0.03635871317468479</v>
       </c>
       <c r="D60">
-        <v>-0.06439435418698998</v>
+        <v>0.02088332637920028</v>
       </c>
       <c r="E60">
-        <v>0.05210625710859983</v>
+        <v>0.04707342217004009</v>
       </c>
       <c r="F60">
-        <v>-0.1804770893831319</v>
+        <v>-0.0357153794663076</v>
       </c>
       <c r="G60">
-        <v>-0.3078241250507189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04144391861543057</v>
+      </c>
+      <c r="H60">
+        <v>-0.3968598188644811</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02361175093981321</v>
+        <v>0.02057109217180545</v>
       </c>
       <c r="C61">
-        <v>-0.007626996328731768</v>
+        <v>-0.005886712041878042</v>
       </c>
       <c r="D61">
-        <v>-0.01314646299708715</v>
+        <v>0.04241478609906226</v>
       </c>
       <c r="E61">
-        <v>-0.01979381732907946</v>
+        <v>-0.005327794688443871</v>
       </c>
       <c r="F61">
-        <v>-0.03848160448746986</v>
+        <v>-0.01687309499473759</v>
       </c>
       <c r="G61">
-        <v>0.01767270411843328</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02611227825142198</v>
+      </c>
+      <c r="H61">
+        <v>-0.05044386499477075</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01571707677920475</v>
+        <v>0.01212720653923873</v>
       </c>
       <c r="C63">
-        <v>-0.01202603131655066</v>
+        <v>0.002542462072045121</v>
       </c>
       <c r="D63">
-        <v>-0.01503368277767603</v>
+        <v>0.01539496318189324</v>
       </c>
       <c r="E63">
-        <v>-0.04251001995851278</v>
+        <v>-0.005806752508531469</v>
       </c>
       <c r="F63">
-        <v>-0.01489436892502815</v>
+        <v>-0.01477530055252948</v>
       </c>
       <c r="G63">
-        <v>0.04583832953796159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01768201185157245</v>
+      </c>
+      <c r="H63">
+        <v>-0.003537646207285188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03505669911285993</v>
+        <v>0.03865041020999591</v>
       </c>
       <c r="C64">
-        <v>-0.004757551344143711</v>
+        <v>-0.009059245969673276</v>
       </c>
       <c r="D64">
-        <v>0.01193079319760663</v>
+        <v>0.04079681249309767</v>
       </c>
       <c r="E64">
-        <v>-0.05746297322036317</v>
+        <v>-0.01104864263509832</v>
       </c>
       <c r="F64">
-        <v>-0.0208496359244014</v>
+        <v>-0.004971987872246067</v>
       </c>
       <c r="G64">
-        <v>0.06446592951721435</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.007894654161867673</v>
+      </c>
+      <c r="H64">
+        <v>-0.03727538652065028</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01662945809527933</v>
+        <v>0.02775594086703656</v>
       </c>
       <c r="C65">
-        <v>-0.01281681945611264</v>
+        <v>0.005225226810769821</v>
       </c>
       <c r="D65">
-        <v>-0.01782136589123511</v>
+        <v>0.06023094430739624</v>
       </c>
       <c r="E65">
-        <v>-0.02239933230075864</v>
+        <v>-0.01070848845968268</v>
       </c>
       <c r="F65">
-        <v>-0.01126504122500252</v>
+        <v>-0.03316720525903211</v>
       </c>
       <c r="G65">
-        <v>-0.003218575392822167</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.003587078865303987</v>
+      </c>
+      <c r="H65">
+        <v>-0.06178496785843796</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04476951337918925</v>
+        <v>0.02299648024211667</v>
       </c>
       <c r="C66">
-        <v>-0.03928022182352239</v>
+        <v>-0.004646801375226516</v>
       </c>
       <c r="D66">
-        <v>-0.02787398715363902</v>
+        <v>0.08813757617422438</v>
       </c>
       <c r="E66">
-        <v>-0.03400626618688161</v>
+        <v>0.002699852718261858</v>
       </c>
       <c r="F66">
-        <v>-0.0617486980382396</v>
+        <v>-0.03660141057514809</v>
       </c>
       <c r="G66">
-        <v>0.02242953140541354</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03629969242188067</v>
+      </c>
+      <c r="H66">
+        <v>-0.0730153359009356</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01456215836825204</v>
+        <v>0.04317037004589352</v>
       </c>
       <c r="C67">
-        <v>0.003060612424630516</v>
+        <v>-0.01954090135935495</v>
       </c>
       <c r="D67">
-        <v>-0.01076795537164724</v>
+        <v>0.003771262525810911</v>
       </c>
       <c r="E67">
-        <v>0.03481398394337927</v>
+        <v>0.005083985484905694</v>
       </c>
       <c r="F67">
-        <v>-0.03008137925775862</v>
+        <v>-0.01568802345868635</v>
       </c>
       <c r="G67">
-        <v>-0.007095697079729</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.005009365968854096</v>
+      </c>
+      <c r="H67">
+        <v>-0.0374518263735935</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06041657262268262</v>
+        <v>0.1618409419718744</v>
       </c>
       <c r="C68">
-        <v>0.0189078868831679</v>
+        <v>-0.01902099636975337</v>
       </c>
       <c r="D68">
-        <v>0.1341343814860059</v>
+        <v>-0.2197522104393478</v>
       </c>
       <c r="E68">
-        <v>0.1424108627730991</v>
+        <v>0.01973771929167601</v>
       </c>
       <c r="F68">
-        <v>-0.04590008788044631</v>
+        <v>0.04804602649620487</v>
       </c>
       <c r="G68">
-        <v>-0.0512717085720644</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01854391581627883</v>
+      </c>
+      <c r="H68">
+        <v>0.03831270963300682</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0722904377002014</v>
+        <v>0.05824666643225762</v>
       </c>
       <c r="C69">
-        <v>-0.03843467290240038</v>
+        <v>-0.02818116093557882</v>
       </c>
       <c r="D69">
-        <v>-0.00467470458807817</v>
+        <v>0.04113369477001436</v>
       </c>
       <c r="E69">
-        <v>-0.002175239338709505</v>
+        <v>0.001364271040879539</v>
       </c>
       <c r="F69">
-        <v>-0.01793645207513478</v>
+        <v>-0.03208068081814523</v>
       </c>
       <c r="G69">
-        <v>0.08342862035532998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01300106444501712</v>
+      </c>
+      <c r="H69">
+        <v>-0.003117708629087257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06978034149188808</v>
+        <v>0.1507563170248</v>
       </c>
       <c r="C71">
-        <v>0.03590788048926092</v>
+        <v>-0.02592309947852993</v>
       </c>
       <c r="D71">
-        <v>0.1153783477371895</v>
+        <v>-0.1952433207941434</v>
       </c>
       <c r="E71">
-        <v>0.1976528295150816</v>
+        <v>0.0259657031730633</v>
       </c>
       <c r="F71">
-        <v>-0.05728509245033114</v>
+        <v>0.05724095061170699</v>
       </c>
       <c r="G71">
-        <v>-0.005885768711138582</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01813993319706984</v>
+      </c>
+      <c r="H71">
+        <v>0.03035678289174834</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1141764174373481</v>
+        <v>0.08040481552323045</v>
       </c>
       <c r="C72">
-        <v>-0.08757020921060586</v>
+        <v>-0.03846885701109961</v>
       </c>
       <c r="D72">
-        <v>0.003677641530183418</v>
+        <v>0.07758420497893798</v>
       </c>
       <c r="E72">
-        <v>-0.0199406755775599</v>
+        <v>0.00768219853545964</v>
       </c>
       <c r="F72">
-        <v>-0.1215568410761467</v>
+        <v>-0.07809014667659472</v>
       </c>
       <c r="G72">
-        <v>-0.06801708553967088</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.0569633871809624</v>
+      </c>
+      <c r="H72">
+        <v>-0.1697470947200205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2474568240775898</v>
+        <v>0.2350880179128551</v>
       </c>
       <c r="C73">
-        <v>-0.03524196020688805</v>
+        <v>-0.04533867725298021</v>
       </c>
       <c r="D73">
-        <v>-0.06738781413394844</v>
+        <v>0.06755364510199535</v>
       </c>
       <c r="E73">
-        <v>0.1517407891539692</v>
+        <v>0.07904415489371544</v>
       </c>
       <c r="F73">
-        <v>-0.3048417807824751</v>
+        <v>-0.03182629764134708</v>
       </c>
       <c r="G73">
-        <v>-0.4580624269103944</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.06074693939532209</v>
+      </c>
+      <c r="H73">
+        <v>-0.5124590585817552</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1416656621629217</v>
+        <v>0.1158681789730662</v>
       </c>
       <c r="C74">
-        <v>-0.04567898204038408</v>
+        <v>-0.05112664540609916</v>
       </c>
       <c r="D74">
-        <v>0.01795266914805659</v>
+        <v>0.1053517288458253</v>
       </c>
       <c r="E74">
-        <v>-0.03924450497373438</v>
+        <v>-0.009475177819843713</v>
       </c>
       <c r="F74">
-        <v>0.06990504651825256</v>
+        <v>-0.06252692278249002</v>
       </c>
       <c r="G74">
-        <v>-0.03250075427909985</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05707694727545922</v>
+      </c>
+      <c r="H74">
+        <v>0.03169629822959377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2309573350288145</v>
+        <v>0.2246290692712116</v>
       </c>
       <c r="C75">
-        <v>-0.1554698055884779</v>
+        <v>-0.1006531107030245</v>
       </c>
       <c r="D75">
-        <v>0.02957721407913601</v>
+        <v>0.1679298669229284</v>
       </c>
       <c r="E75">
-        <v>-0.06713485621265147</v>
+        <v>0.002535634164258516</v>
       </c>
       <c r="F75">
-        <v>0.1250255051831841</v>
+        <v>-0.1494509590981186</v>
       </c>
       <c r="G75">
-        <v>0.00101365561710153</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.124871256932137</v>
+      </c>
+      <c r="H75">
+        <v>0.11699079130509</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2814801952279212</v>
+        <v>0.1990688908002081</v>
       </c>
       <c r="C76">
-        <v>-0.1459494626578813</v>
+        <v>-0.09407119766849718</v>
       </c>
       <c r="D76">
-        <v>0.1037833860387324</v>
+        <v>0.1596944637144018</v>
       </c>
       <c r="E76">
-        <v>-0.08752205899629889</v>
+        <v>-0.04879366223789992</v>
       </c>
       <c r="F76">
-        <v>0.1614577540339969</v>
+        <v>-0.1439539207867098</v>
       </c>
       <c r="G76">
-        <v>0.005581482139791464</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1221431937317202</v>
+      </c>
+      <c r="H76">
+        <v>0.1257503489086357</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1387593534304276</v>
+        <v>0.06771821329871729</v>
       </c>
       <c r="C77">
-        <v>0.03142273440902571</v>
+        <v>-0.007078944662564597</v>
       </c>
       <c r="D77">
-        <v>-0.08155015519787576</v>
+        <v>0.0630015797376018</v>
       </c>
       <c r="E77">
-        <v>-0.05694262528634702</v>
+        <v>0.01567019527599423</v>
       </c>
       <c r="F77">
-        <v>-0.1782337042818296</v>
+        <v>0.03750777473128501</v>
       </c>
       <c r="G77">
-        <v>0.1897050499689872</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.102187562130574</v>
+      </c>
+      <c r="H77">
+        <v>-0.00278392812880064</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0646667296980199</v>
+        <v>0.03822023699722469</v>
       </c>
       <c r="C78">
-        <v>-0.02589765668953272</v>
+        <v>-0.009648369855693031</v>
       </c>
       <c r="D78">
-        <v>-0.03101644150068253</v>
+        <v>0.04947916617870099</v>
       </c>
       <c r="E78">
-        <v>-0.09054862648348272</v>
+        <v>-0.007903740806676638</v>
       </c>
       <c r="F78">
-        <v>-0.0695008342337862</v>
+        <v>-0.02055688162772105</v>
       </c>
       <c r="G78">
-        <v>0.03272811414810608</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05874960252027241</v>
+      </c>
+      <c r="H78">
+        <v>-0.06818775519818095</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1362426361565271</v>
+        <v>0.1389282921368842</v>
       </c>
       <c r="C80">
-        <v>0.584708963023743</v>
+        <v>-0.03686437444721113</v>
       </c>
       <c r="D80">
-        <v>0.5675135382811149</v>
+        <v>0.04795684634108956</v>
       </c>
       <c r="E80">
-        <v>-0.5194568524191586</v>
+        <v>-0.9367159982288671</v>
       </c>
       <c r="F80">
-        <v>-0.07925061861979969</v>
+        <v>0.2511624951329454</v>
       </c>
       <c r="G80">
-        <v>-0.1139810147984217</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1181898635963384</v>
+      </c>
+      <c r="H80">
+        <v>-0.01003378867029557</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1738905659727234</v>
+        <v>0.1471329046276236</v>
       </c>
       <c r="C81">
-        <v>-0.1081118697457784</v>
+        <v>-0.06499144698118338</v>
       </c>
       <c r="D81">
-        <v>0.05154359612384273</v>
+        <v>0.1025530438858387</v>
       </c>
       <c r="E81">
-        <v>-0.04844912826691162</v>
+        <v>-0.01782398140641948</v>
       </c>
       <c r="F81">
-        <v>0.130886169286967</v>
+        <v>-0.09018742596737465</v>
       </c>
       <c r="G81">
-        <v>-0.02368487599252819</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.08138779599525152</v>
+      </c>
+      <c r="H81">
+        <v>0.08283962624677056</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04955342842060224</v>
+        <v>0.03258717299051851</v>
       </c>
       <c r="C83">
-        <v>-0.0004878836619074451</v>
+        <v>-0.005638260278374113</v>
       </c>
       <c r="D83">
-        <v>-0.03778250186212295</v>
+        <v>0.02142452234294265</v>
       </c>
       <c r="E83">
-        <v>-0.01341676431013432</v>
+        <v>0.005523314973976783</v>
       </c>
       <c r="F83">
-        <v>-0.05471061436405784</v>
+        <v>-0.002273616689891563</v>
       </c>
       <c r="G83">
-        <v>0.04659716174601161</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04168142900506707</v>
+      </c>
+      <c r="H83">
+        <v>-0.0405383546778557</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2523432558231232</v>
+        <v>0.2136625798100706</v>
       </c>
       <c r="C85">
-        <v>-0.1382819414679737</v>
+        <v>-0.0840989445291743</v>
       </c>
       <c r="D85">
-        <v>0.04975834155266411</v>
+        <v>0.1689285724828668</v>
       </c>
       <c r="E85">
-        <v>-0.07598931681108226</v>
+        <v>-0.004317016912768343</v>
       </c>
       <c r="F85">
-        <v>0.1271368717776627</v>
+        <v>-0.1354969317764823</v>
       </c>
       <c r="G85">
-        <v>0.04617486312391207</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1374026551568701</v>
+      </c>
+      <c r="H85">
+        <v>0.0863965053360715</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002568625575771887</v>
+        <v>0.02032919753466431</v>
       </c>
       <c r="C86">
-        <v>0.006900581338651748</v>
+        <v>0.00105970117746079</v>
       </c>
       <c r="D86">
-        <v>-0.0220900522978462</v>
+        <v>0.005150581590799343</v>
       </c>
       <c r="E86">
-        <v>-0.05016049456684808</v>
+        <v>0.009185338197412003</v>
       </c>
       <c r="F86">
-        <v>-0.05938346298160594</v>
+        <v>0.02081289927393788</v>
       </c>
       <c r="G86">
-        <v>0.02222768916237619</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.06216156442012016</v>
+      </c>
+      <c r="H86">
+        <v>-0.07521257762725188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03810400854740362</v>
+        <v>0.02643125705552023</v>
       </c>
       <c r="C87">
-        <v>0.006951971873254791</v>
+        <v>-0.00173117340905082</v>
       </c>
       <c r="D87">
-        <v>-0.002264926596011733</v>
+        <v>0.0336688661748899</v>
       </c>
       <c r="E87">
-        <v>-0.03751737826984004</v>
+        <v>-0.008844094373130369</v>
       </c>
       <c r="F87">
-        <v>-0.1076274806518208</v>
+        <v>-0.006128782829892009</v>
       </c>
       <c r="G87">
-        <v>0.03506543074742208</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07712644892290273</v>
+      </c>
+      <c r="H87">
+        <v>-0.07258365093045133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.009844499996116097</v>
+        <v>0.03522964087714382</v>
       </c>
       <c r="C88">
-        <v>-0.003374793989254922</v>
+        <v>0.01183268516691495</v>
       </c>
       <c r="D88">
-        <v>0.01705721627745371</v>
+        <v>0.00476923685959732</v>
       </c>
       <c r="E88">
-        <v>0.00200166641289032</v>
+        <v>-0.008457533802165821</v>
       </c>
       <c r="F88">
-        <v>-0.004743470902681617</v>
+        <v>-0.007235568808035329</v>
       </c>
       <c r="G88">
-        <v>0.05354521357535818</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.002933069252923432</v>
+      </c>
+      <c r="H88">
+        <v>-0.01551270292900964</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08588452108451899</v>
+        <v>0.2562607228338589</v>
       </c>
       <c r="C89">
-        <v>0.05141958450702087</v>
+        <v>-0.04131256165572356</v>
       </c>
       <c r="D89">
-        <v>0.1634709146482851</v>
+        <v>-0.3454329575924113</v>
       </c>
       <c r="E89">
-        <v>0.2638846611253132</v>
+        <v>0.04117459731078116</v>
       </c>
       <c r="F89">
-        <v>-0.1063900434081309</v>
+        <v>0.05951250845241229</v>
       </c>
       <c r="G89">
-        <v>0.03837383907117443</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02448986888241225</v>
+      </c>
+      <c r="H89">
+        <v>0.01092805210439813</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07484328403708883</v>
+        <v>0.2061848067437425</v>
       </c>
       <c r="C90">
-        <v>0.07622995494044849</v>
+        <v>-0.03386261153918209</v>
       </c>
       <c r="D90">
-        <v>0.2146377452176456</v>
+        <v>-0.3036427864247624</v>
       </c>
       <c r="E90">
-        <v>0.265918642756908</v>
+        <v>0.03156432754676899</v>
       </c>
       <c r="F90">
-        <v>-0.05910103652035197</v>
+        <v>0.07498190396144408</v>
       </c>
       <c r="G90">
-        <v>0.0376956388691535</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.0325795800546896</v>
+      </c>
+      <c r="H90">
+        <v>0.06821071400495377</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3124713898458384</v>
+        <v>0.2311847375191089</v>
       </c>
       <c r="C91">
-        <v>-0.1539833663520104</v>
+        <v>-0.1015543832355016</v>
       </c>
       <c r="D91">
-        <v>0.04459204307566347</v>
+        <v>0.1590665771220728</v>
       </c>
       <c r="E91">
-        <v>-0.05415342232575697</v>
+        <v>-0.002604924835229776</v>
       </c>
       <c r="F91">
-        <v>0.2337609104744529</v>
+        <v>-0.1422124215513437</v>
       </c>
       <c r="G91">
-        <v>-0.03098533939353892</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1468745535587433</v>
+      </c>
+      <c r="H91">
+        <v>0.1629453208828235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1709791069328317</v>
+        <v>0.2516141147346996</v>
       </c>
       <c r="C92">
-        <v>0.01556298816086459</v>
+        <v>-0.09636590240215986</v>
       </c>
       <c r="D92">
-        <v>0.3050619595855514</v>
+        <v>-0.2312480098599811</v>
       </c>
       <c r="E92">
-        <v>0.356072851174957</v>
+        <v>0.01827312729776796</v>
       </c>
       <c r="F92">
-        <v>0.06001191389655777</v>
+        <v>0.02593043776947122</v>
       </c>
       <c r="G92">
-        <v>0.492003279029662</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.006005755527464655</v>
+      </c>
+      <c r="H92">
+        <v>0.150973291871458</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.07870710223466879</v>
+        <v>0.2303896432901736</v>
       </c>
       <c r="C93">
-        <v>0.08162878745935923</v>
+        <v>-0.04573049329318851</v>
       </c>
       <c r="D93">
-        <v>0.2423341059339692</v>
+        <v>-0.3275351533306532</v>
       </c>
       <c r="E93">
-        <v>0.3869020021123225</v>
+        <v>0.05662350444662173</v>
       </c>
       <c r="F93">
-        <v>-0.02662896842567419</v>
+        <v>0.08528012690793858</v>
       </c>
       <c r="G93">
-        <v>-0.04559170512787323</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03046922374152044</v>
+      </c>
+      <c r="H93">
+        <v>0.01868517120194248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3000718465721239</v>
+        <v>0.2549319306421212</v>
       </c>
       <c r="C94">
-        <v>-0.2225554541313967</v>
+        <v>-0.09248670901393376</v>
       </c>
       <c r="D94">
-        <v>0.08853553522409648</v>
+        <v>0.1591402147621464</v>
       </c>
       <c r="E94">
-        <v>-0.06862569265889824</v>
+        <v>0.005563514690447599</v>
       </c>
       <c r="F94">
-        <v>0.2102368821500883</v>
+        <v>-0.1928571821860201</v>
       </c>
       <c r="G94">
-        <v>-0.06287822958325411</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1350801855823159</v>
+      </c>
+      <c r="H94">
+        <v>0.1819205094588734</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06687162903026979</v>
+        <v>0.05160324108264293</v>
       </c>
       <c r="C95">
-        <v>-0.03192120577198983</v>
+        <v>-0.02795000333596014</v>
       </c>
       <c r="D95">
-        <v>-0.09574690775644562</v>
+        <v>0.08526530366562948</v>
       </c>
       <c r="E95">
-        <v>-0.06580112258533327</v>
+        <v>0.08118341638430558</v>
       </c>
       <c r="F95">
-        <v>-0.003299044035550203</v>
+        <v>-0.006306229958628959</v>
       </c>
       <c r="G95">
-        <v>0.1535797439596835</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.03046407150347377</v>
+      </c>
+      <c r="H95">
+        <v>-0.04265934354709064</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1856542140316111</v>
+        <v>0.1788110155676422</v>
       </c>
       <c r="C98">
-        <v>0.005876852322348248</v>
+        <v>-0.06707857948401939</v>
       </c>
       <c r="D98">
-        <v>-0.03309925996903415</v>
+        <v>0.04497765304525223</v>
       </c>
       <c r="E98">
-        <v>0.09525518608389297</v>
+        <v>0.04549486121164396</v>
       </c>
       <c r="F98">
-        <v>-0.170658973382963</v>
+        <v>-0.004418377224898704</v>
       </c>
       <c r="G98">
-        <v>-0.3720501640101586</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.08007407949955923</v>
+      </c>
+      <c r="H98">
+        <v>-0.3772003933017312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.006674174630214185</v>
+        <v>0.01487189695643071</v>
       </c>
       <c r="C101">
-        <v>-0.0233750332396749</v>
+        <v>0.0007792622441363652</v>
       </c>
       <c r="D101">
-        <v>-0.02115884012899123</v>
+        <v>0.007646323404096886</v>
       </c>
       <c r="E101">
-        <v>-0.1008436934266518</v>
+        <v>-0.006055351355827977</v>
       </c>
       <c r="F101">
-        <v>-0.1477244301364662</v>
+        <v>-0.01657973988353996</v>
       </c>
       <c r="G101">
-        <v>0.179874839558664</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1093065665751002</v>
+      </c>
+      <c r="H101">
+        <v>0.03038684417161842</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1093238316856081</v>
+        <v>0.1032194993200496</v>
       </c>
       <c r="C102">
-        <v>-0.06961081005673513</v>
+        <v>-0.03335489784219312</v>
       </c>
       <c r="D102">
-        <v>0.0009831973743287944</v>
+        <v>0.08443646588061605</v>
       </c>
       <c r="E102">
-        <v>-0.05379001345328116</v>
+        <v>-0.005294437140682326</v>
       </c>
       <c r="F102">
-        <v>0.1143235630958694</v>
+        <v>-0.06994822758936919</v>
       </c>
       <c r="G102">
-        <v>0.003836754543196391</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07599964410459716</v>
+      </c>
+      <c r="H102">
+        <v>0.06704793371750439</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02816412555902765</v>
+        <v>0.01932337044132658</v>
       </c>
       <c r="C103">
-        <v>-0.01595563553664696</v>
+        <v>-0.00724172728737357</v>
       </c>
       <c r="D103">
-        <v>0.006002827666622645</v>
+        <v>0.01723691369483804</v>
       </c>
       <c r="E103">
-        <v>-0.01230979179054595</v>
+        <v>-0.01157323628189952</v>
       </c>
       <c r="F103">
-        <v>0.007129724068711163</v>
+        <v>-0.01328754241715368</v>
       </c>
       <c r="G103">
-        <v>0.0363901280604822</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0002533499926059431</v>
+      </c>
+      <c r="H103">
+        <v>0.007476953821153668</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2639406610891221</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9475790216363019</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.01186043414629953</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03619403171596447</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1442358497843279</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.01258494858618494</v>
+      </c>
+      <c r="H104">
+        <v>0.03829062511728178</v>
       </c>
     </row>
   </sheetData>
